--- a/trunk/SDPS/BITÁCORAS/Bitácora 2.xlsx
+++ b/trunk/SDPS/BITÁCORAS/Bitácora 2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k'rolinee Carolina\Desktop\PizzaRicky\trunk\SDPS\BITÀCORAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis Aroche\Desktop\PizzaRicky\PizzaRicky\trunk\SDPS\BITÁCORAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="71">
   <si>
     <t>Grupo:</t>
   </si>
@@ -342,6 +342,9 @@
   </si>
   <si>
     <t>El dìa 7 de septiembre se reunio el equipo con la pizzeria ricky para levantar los requerimientos del software ademàs de establecer el alcanze y limitaciones de la aplicaciòn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El dia 17 del presente mes el equipo conformado por Luis Aroche, Carolina Camarillo, Bethsaida Guzman y Heriberto Matinez se reunio para estructurar el modelo entidad relacion </t>
   </si>
 </sst>
 </file>
@@ -814,138 +817,138 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1521,114 +1524,114 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="33"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="35"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="36"/>
     </row>
     <row r="4" spans="2:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="38"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="39"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C8" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="40">
         <v>3</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
@@ -1640,79 +1643,79 @@
       <c r="C13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="5">
         <v>1</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="5">
         <v>2</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="5">
         <v>3</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
     </row>
     <row r="17" spans="3:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C17" s="5">
         <v>4</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C18" s="5">
         <v>5</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C19" s="5">
         <v>6</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1742,7 +1745,7 @@
   <dimension ref="B2:K109"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1760,40 +1763,40 @@
   <sheetData>
     <row r="2" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="44"/>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
     </row>
     <row r="4" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="46"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="47"/>
       <c r="J4" s="13"/>
       <c r="K4" s="13"/>
     </row>
     <row r="5" spans="2:11" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="47"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="49"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="50"/>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
@@ -1867,7 +1870,7 @@
       <c r="F10" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="71" t="s">
+      <c r="G10" s="28" t="s">
         <v>68</v>
       </c>
       <c r="H10" s="11" t="s">
@@ -1879,12 +1882,22 @@
       <c r="B11" s="10">
         <v>3</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="18"/>
+      <c r="C11" s="19">
+        <v>42264</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>70</v>
+      </c>
       <c r="G11" s="12"/>
-      <c r="H11" s="11"/>
+      <c r="H11" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="I11" s="15"/>
     </row>
     <row r="12" spans="2:11" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2931,144 +2944,144 @@
   <sheetData>
     <row r="1" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="44"/>
     </row>
     <row r="3" spans="2:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="46"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="47"/>
     </row>
     <row r="4" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="49"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="50"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="70" t="s">
+      <c r="C6" s="55"/>
+      <c r="D6" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
       <c r="K6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="70"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="60"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="70" t="s">
+      <c r="C7" s="55"/>
+      <c r="D7" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
     </row>
     <row r="9" spans="2:21" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="66"/>
-      <c r="E9" s="63" t="s">
+      <c r="D9" s="56"/>
+      <c r="E9" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="61" t="s">
+      <c r="F9" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="67" t="s">
+      <c r="G9" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="68"/>
-      <c r="S9" s="68"/>
-      <c r="T9" s="68"/>
-      <c r="U9" s="69"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="59"/>
     </row>
     <row r="10" spans="2:21" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="64"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="62"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="52"/>
       <c r="G10" s="17">
         <v>1</v>
       </c>
@@ -3116,14 +3129,14 @@
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B11" s="56">
+      <c r="B11" s="71">
         <v>1</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="58"/>
-      <c r="E11" s="54"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="61"/>
       <c r="F11" s="4" t="s">
         <v>37</v>
       </c>
@@ -3144,10 +3157,10 @@
       <c r="U11" s="4"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B12" s="56"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="55"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="62"/>
       <c r="F12" s="4" t="s">
         <v>36</v>
       </c>
@@ -3168,14 +3181,14 @@
       <c r="U12" s="4"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B13" s="56">
+      <c r="B13" s="71">
         <v>2</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="54"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="61"/>
       <c r="F13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3196,10 +3209,10 @@
       <c r="U13" s="4"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B14" s="56"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="55"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="62"/>
       <c r="F14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3220,14 +3233,14 @@
       <c r="U14" s="4"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B15" s="56">
+      <c r="B15" s="71">
         <v>3</v>
       </c>
-      <c r="C15" s="50" t="s">
+      <c r="C15" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="51"/>
-      <c r="E15" s="54"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="61"/>
       <c r="F15" s="4" t="s">
         <v>37</v>
       </c>
@@ -3248,10 +3261,10 @@
       <c r="U15" s="4"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B16" s="56"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="55"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="62"/>
       <c r="F16" s="4" t="s">
         <v>36</v>
       </c>
@@ -3272,14 +3285,14 @@
       <c r="U16" s="4"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B17" s="56">
+      <c r="B17" s="71">
         <v>4</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="51"/>
-      <c r="E17" s="54"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="61"/>
       <c r="F17" s="4" t="s">
         <v>37</v>
       </c>
@@ -3300,10 +3313,10 @@
       <c r="U17" s="4"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B18" s="56"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="55"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="62"/>
       <c r="F18" s="4" t="s">
         <v>36</v>
       </c>
@@ -3324,14 +3337,14 @@
       <c r="U18" s="4"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B19" s="56">
+      <c r="B19" s="71">
         <v>5</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="51"/>
-      <c r="E19" s="54"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="61"/>
       <c r="F19" s="4" t="s">
         <v>37</v>
       </c>
@@ -3352,10 +3365,10 @@
       <c r="U19" s="4"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B20" s="56"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="55"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="62"/>
       <c r="F20" s="4" t="s">
         <v>36</v>
       </c>
@@ -3376,14 +3389,14 @@
       <c r="U20" s="4"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B21" s="56">
+      <c r="B21" s="71">
         <v>6</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="51"/>
-      <c r="E21" s="54"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="61"/>
       <c r="F21" s="4" t="s">
         <v>37</v>
       </c>
@@ -3404,10 +3417,10 @@
       <c r="U21" s="4"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="56"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="55"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="62"/>
       <c r="F22" s="4" t="s">
         <v>36</v>
       </c>
@@ -3428,14 +3441,14 @@
       <c r="U22" s="4"/>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B23" s="56">
+      <c r="B23" s="71">
         <v>7</v>
       </c>
-      <c r="C23" s="50" t="s">
+      <c r="C23" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="51"/>
-      <c r="E23" s="54"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="61"/>
       <c r="F23" s="4" t="s">
         <v>37</v>
       </c>
@@ -3456,10 +3469,10 @@
       <c r="U23" s="4"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B24" s="56"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="55"/>
+      <c r="B24" s="71"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="62"/>
       <c r="F24" s="4" t="s">
         <v>36</v>
       </c>
@@ -3480,14 +3493,14 @@
       <c r="U24" s="4"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B25" s="56">
+      <c r="B25" s="71">
         <v>8</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="51"/>
-      <c r="E25" s="54"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="61"/>
       <c r="F25" s="4" t="s">
         <v>37</v>
       </c>
@@ -3508,10 +3521,10 @@
       <c r="U25" s="4"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B26" s="56"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="55"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="62"/>
       <c r="F26" s="4" t="s">
         <v>36</v>
       </c>
@@ -3532,14 +3545,14 @@
       <c r="U26" s="4"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B27" s="56">
+      <c r="B27" s="71">
         <v>9</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="51"/>
-      <c r="E27" s="54"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="61"/>
       <c r="F27" s="4" t="s">
         <v>37</v>
       </c>
@@ -3560,10 +3573,10 @@
       <c r="U27" s="4"/>
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B28" s="56"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="55"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="62"/>
       <c r="F28" s="4" t="s">
         <v>36</v>
       </c>
@@ -3584,14 +3597,14 @@
       <c r="U28" s="4"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B29" s="56">
+      <c r="B29" s="71">
         <v>10</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="51"/>
-      <c r="E29" s="54"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="61"/>
       <c r="F29" s="4" t="s">
         <v>37</v>
       </c>
@@ -3612,10 +3625,10 @@
       <c r="U29" s="4"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B30" s="56"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="55"/>
+      <c r="B30" s="71"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="62"/>
       <c r="F30" s="4" t="s">
         <v>36</v>
       </c>
@@ -3636,14 +3649,14 @@
       <c r="U30" s="4"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B31" s="56">
+      <c r="B31" s="71">
         <v>11</v>
       </c>
-      <c r="C31" s="50" t="s">
+      <c r="C31" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="51"/>
-      <c r="E31" s="54"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="61"/>
       <c r="F31" s="4" t="s">
         <v>37</v>
       </c>
@@ -3664,10 +3677,10 @@
       <c r="U31" s="4"/>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B32" s="56"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="55"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="62"/>
       <c r="F32" s="4" t="s">
         <v>36</v>
       </c>
@@ -3688,14 +3701,14 @@
       <c r="U32" s="4"/>
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B33" s="56">
+      <c r="B33" s="71">
         <v>12</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="51"/>
-      <c r="E33" s="54"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="61"/>
       <c r="F33" s="4" t="s">
         <v>37</v>
       </c>
@@ -3716,10 +3729,10 @@
       <c r="U33" s="4"/>
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B34" s="56"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="55"/>
+      <c r="B34" s="71"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="62"/>
       <c r="F34" s="4" t="s">
         <v>36</v>
       </c>
@@ -3740,14 +3753,14 @@
       <c r="U34" s="4"/>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B35" s="56">
+      <c r="B35" s="71">
         <v>13</v>
       </c>
-      <c r="C35" s="50" t="s">
+      <c r="C35" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="51"/>
-      <c r="E35" s="54"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="61"/>
       <c r="F35" s="4" t="s">
         <v>37</v>
       </c>
@@ -3768,10 +3781,10 @@
       <c r="U35" s="4"/>
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B36" s="56"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="55"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="62"/>
       <c r="F36" s="4" t="s">
         <v>36</v>
       </c>
@@ -3792,14 +3805,14 @@
       <c r="U36" s="4"/>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B37" s="56">
+      <c r="B37" s="71">
         <v>14</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="51"/>
-      <c r="E37" s="54"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="61"/>
       <c r="F37" s="4" t="s">
         <v>37</v>
       </c>
@@ -3820,10 +3833,10 @@
       <c r="U37" s="4"/>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B38" s="56"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="55"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="62"/>
       <c r="F38" s="4" t="s">
         <v>36</v>
       </c>
@@ -3844,14 +3857,14 @@
       <c r="U38" s="4"/>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B39" s="56">
+      <c r="B39" s="71">
         <v>15</v>
       </c>
-      <c r="C39" s="50" t="s">
+      <c r="C39" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="51"/>
-      <c r="E39" s="54"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="61"/>
       <c r="F39" s="4" t="s">
         <v>37</v>
       </c>
@@ -3872,10 +3885,10 @@
       <c r="U39" s="21"/>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B40" s="56"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="55"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="62"/>
       <c r="F40" s="4" t="s">
         <v>36</v>
       </c>
@@ -3897,35 +3910,17 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="B2:U4"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="G9:U9"/>
-    <mergeCell ref="P6:U6"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="C15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="C39:D40"/>
@@ -3942,17 +3937,35 @@
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="C15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B2:U4"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="G9:U9"/>
+    <mergeCell ref="P6:U6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="55" orientation="portrait" verticalDpi="300" r:id="rId1"/>
